--- a/DOC/Мясной бизнес/Тест расчета себестоимости.xlsx
+++ b/DOC/Мясной бизнес/Тест расчета себестоимости.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15060" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,11 +109,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -125,13 +130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="50"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,25 +151,25 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -185,6 +190,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -193,10 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -207,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -247,7 +252,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -317,7 +322,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,7 +499,7 @@
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:XFD1048576"/>
+      <selection activeCell="E9" sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,29 +517,29 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="2"/>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
@@ -2889,6 +2894,7 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2899,7 +2905,7 @@
   <dimension ref="A1:P319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2917,29 +2923,29 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="2"/>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
@@ -2989,18 +2995,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="12">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12">
-        <v>100</v>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.02</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="12">
-        <v>20</v>
-      </c>
-      <c r="H3" s="12">
-        <v>180</v>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -3012,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="O3" s="2">
         <v>2</v>
@@ -3044,16 +3050,16 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2">
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="M4" s="3">
         <v>2</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="14">
+      <c r="P4" s="10">
         <f>N3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3069,9 +3075,9 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="9">
         <f>N6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3081,8 +3087,8 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="15">
-        <v>10</v>
+      <c r="J6" s="11">
+        <v>0.6</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3091,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -3201,15 +3207,15 @@
       </c>
       <c r="C14">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
         <f>$E$3+$H$3</f>
-        <v>280</v>
+        <v>1.02</v>
       </c>
       <c r="E14">
         <f>D14/C14</f>
-        <v>3.5</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3219,7 +3225,7 @@
       </c>
       <c r="I14">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J14">
         <f>I14*D15/C15</f>
@@ -3236,7 +3242,7 @@
       </c>
       <c r="C15">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="E15">
         <f>D15/C15</f>
@@ -3250,11 +3256,11 @@
       </c>
       <c r="I15">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J15">
         <f>I15*D14/C14</f>
-        <v>105</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3338,7 +3344,7 @@
       </c>
       <c r="I18">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J18">
         <f>I18*D15/C15</f>
@@ -3348,7 +3354,7 @@
     <row r="19" spans="2:12">
       <c r="D19" s="1">
         <f>SUM(D14:D18)</f>
-        <v>314</v>
+        <v>35.019999999999996</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -3394,15 +3400,15 @@
       </c>
       <c r="C24">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D24">
         <f>$E$3+$H$3+J14</f>
-        <v>280</v>
+        <v>1.02</v>
       </c>
       <c r="E24">
         <f>D24/C24</f>
-        <v>3.5</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -3412,11 +3418,11 @@
       </c>
       <c r="I24">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J24">
         <f>I24*D25/C25</f>
-        <v>140.625</v>
+        <v>3.7971428571428572</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -3425,15 +3431,15 @@
       </c>
       <c r="C25">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D25">
         <f>SUM(J15:J18)</f>
-        <v>112.5</v>
+        <v>8.86</v>
       </c>
       <c r="E25">
         <f>D25/C25</f>
-        <v>2.8125</v>
+        <v>6.3285714285714283</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3443,11 +3449,11 @@
       </c>
       <c r="I25">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J25">
         <f>I25*D24/C24</f>
-        <v>105</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -3527,21 +3533,21 @@
       </c>
       <c r="I28">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J28">
         <f>I28*D25/C25</f>
-        <v>84.375</v>
+        <v>5.0628571428571432</v>
       </c>
       <c r="L28">
         <f>D19-D29</f>
-        <v>-112.5</v>
+        <v>-8.86</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="D29" s="1">
         <f>SUM(D24:D28)</f>
-        <v>426.5</v>
+        <v>43.879999999999995</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -3590,15 +3596,15 @@
       </c>
       <c r="C34">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D34">
         <f>$E$3+$H$3+J24</f>
-        <v>420.625</v>
+        <v>4.8171428571428567</v>
       </c>
       <c r="E34">
         <f>D34/C34</f>
-        <v>5.2578125</v>
+        <v>8.0285714285714285</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3608,11 +3614,11 @@
       </c>
       <c r="I34">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J34">
         <f>I34*D35/C35</f>
-        <v>246.09375</v>
+        <v>5.9669387755102044</v>
       </c>
     </row>
     <row r="35" spans="2:12">
@@ -3621,15 +3627,15 @@
       </c>
       <c r="C35">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D35">
         <f>SUM(J25:J28)</f>
-        <v>196.875</v>
+        <v>13.922857142857143</v>
       </c>
       <c r="E35">
         <f>D35/C35</f>
-        <v>4.921875</v>
+        <v>9.9448979591836739</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3639,11 +3645,11 @@
       </c>
       <c r="I35">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J35">
         <f>I35*D34/C34</f>
-        <v>157.734375</v>
+        <v>6.4228571428571426</v>
       </c>
     </row>
     <row r="36" spans="2:12">
@@ -3723,21 +3729,21 @@
       </c>
       <c r="I38">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J38">
         <f>I38*D35/C35</f>
-        <v>147.65625</v>
+        <v>7.95591836734694</v>
       </c>
       <c r="L38">
         <f>D29-D39</f>
-        <v>-225</v>
+        <v>-8.8600000000000065</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="D39" s="1">
         <f>SUM(D34:D38)</f>
-        <v>651.5</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -3786,15 +3792,15 @@
       </c>
       <c r="C44">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D44">
         <f>$E$3+$H$3+J34</f>
-        <v>526.09375</v>
+        <v>6.9869387755102039</v>
       </c>
       <c r="E44">
         <f>D44/C44</f>
-        <v>6.576171875</v>
+        <v>11.644897959183673</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3804,11 +3810,11 @@
       </c>
       <c r="I44">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J44">
         <f>I44*D45/C45</f>
-        <v>391.11328125</v>
+        <v>9.3766180758017494</v>
       </c>
     </row>
     <row r="45" spans="2:12">
@@ -3817,15 +3823,15 @@
       </c>
       <c r="C45">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D45">
         <f>SUM(J35:J38)</f>
-        <v>312.890625</v>
+        <v>21.878775510204083</v>
       </c>
       <c r="E45">
         <f>D45/C45</f>
-        <v>7.822265625</v>
+        <v>15.627696793002917</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -3835,11 +3841,11 @@
       </c>
       <c r="I45">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J45">
         <f>I45*D44/C44</f>
-        <v>197.28515625</v>
+        <v>9.3159183673469386</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -3919,21 +3925,21 @@
       </c>
       <c r="I48">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J48">
         <f>I48*D45/C45</f>
-        <v>234.66796875</v>
+        <v>12.502157434402333</v>
       </c>
       <c r="L48">
         <f>D39-D49</f>
-        <v>-221.484375</v>
+        <v>-10.125714285714288</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="D49" s="1">
         <f>SUM(D44:D48)</f>
-        <v>872.984375</v>
+        <v>62.86571428571429</v>
       </c>
     </row>
     <row r="52" spans="2:12">
@@ -3979,15 +3985,15 @@
       </c>
       <c r="C54">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D54">
         <f>$E$3+$H$3+J44</f>
-        <v>671.11328125</v>
+        <v>10.396618075801749</v>
       </c>
       <c r="E54">
         <f>D54/C54</f>
-        <v>8.388916015625</v>
+        <v>17.327696793002914</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3997,11 +4003,11 @@
       </c>
       <c r="I54">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J54">
         <f>I54*D55/C55</f>
-        <v>549.31640625</v>
+        <v>12.564889629321117</v>
       </c>
     </row>
     <row r="55" spans="2:12">
@@ -4010,15 +4016,15 @@
       </c>
       <c r="C55">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D55">
         <f>SUM(J45:J48)</f>
-        <v>439.453125</v>
+        <v>29.318075801749274</v>
       </c>
       <c r="E55">
         <f>D55/C55</f>
-        <v>10.986328125</v>
+        <v>20.941482715535198</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -4028,11 +4034,11 @@
       </c>
       <c r="I55">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J55">
         <f>I55*D54/C54</f>
-        <v>251.66748046875</v>
+        <v>13.862157434402333</v>
       </c>
     </row>
     <row r="56" spans="2:12">
@@ -4112,21 +4118,21 @@
       </c>
       <c r="I58">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J58">
         <f>I58*D55/C55</f>
-        <v>329.58984375</v>
+        <v>16.753186172428158</v>
       </c>
       <c r="L58">
         <f>D49-D59</f>
-        <v>-271.58203125</v>
+        <v>-10.848979591836724</v>
       </c>
     </row>
     <row r="59" spans="2:12">
       <c r="D59" s="1">
         <f>SUM(D54:D58)</f>
-        <v>1144.56640625</v>
+        <v>73.714693877551014</v>
       </c>
     </row>
     <row r="62" spans="2:12">
@@ -4172,15 +4178,15 @@
       </c>
       <c r="C64">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D64">
         <f>$E$3+$H$3+J54</f>
-        <v>829.31640625</v>
+        <v>13.584889629321117</v>
       </c>
       <c r="E64">
         <f>D64/C64</f>
-        <v>10.366455078125</v>
+        <v>22.641482715535194</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -4190,11 +4196,11 @@
       </c>
       <c r="I64">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J64">
         <f>I64*D65/C65</f>
-        <v>735.9466552734375</v>
+        <v>16.335147260070212</v>
       </c>
     </row>
     <row r="65" spans="2:12">
@@ -4203,15 +4209,15 @@
       </c>
       <c r="C65">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D65">
         <f>SUM(J55:J58)</f>
-        <v>588.75732421875</v>
+        <v>38.115343606830493</v>
       </c>
       <c r="E65">
         <f>D65/C65</f>
-        <v>14.71893310546875</v>
+        <v>27.225245433450354</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -4221,11 +4227,11 @@
       </c>
       <c r="I65">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J65">
         <f>I65*D64/C64</f>
-        <v>310.99365234375</v>
+        <v>18.113186172428158</v>
       </c>
     </row>
     <row r="66" spans="2:12">
@@ -4305,21 +4311,21 @@
       </c>
       <c r="I68">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J68">
         <f>I68*D65/C65</f>
-        <v>441.5679931640625</v>
+        <v>21.780196346760285</v>
       </c>
       <c r="L68">
         <f>D59-D69</f>
-        <v>-307.50732421875</v>
+        <v>-11.98553935860059</v>
       </c>
     </row>
     <row r="69" spans="2:12">
       <c r="D69" s="1">
         <f>SUM(D64:D68)</f>
-        <v>1452.07373046875</v>
+        <v>85.700233236151604</v>
       </c>
     </row>
     <row r="72" spans="2:12">
@@ -4365,15 +4371,15 @@
       </c>
       <c r="C74">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D74">
         <f>$E$3+$H$3+J64</f>
-        <v>1015.9466552734375</v>
+        <v>17.355147260070211</v>
       </c>
       <c r="E74">
         <f>D74/C74</f>
-        <v>12.699333190917969</v>
+        <v>28.925245433450353</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -4383,11 +4389,11 @@
       </c>
       <c r="I74">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J74">
         <f>I74*D75/C75</f>
-        <v>950.07705688476562</v>
+        <v>20.311449651080764</v>
       </c>
     </row>
     <row r="75" spans="2:12">
@@ -4396,15 +4402,15 @@
       </c>
       <c r="C75">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D75">
         <f>SUM(J65:J68)</f>
-        <v>760.0616455078125</v>
+        <v>47.393382519188442</v>
       </c>
       <c r="E75">
         <f>D75/C75</f>
-        <v>19.001541137695313</v>
+        <v>33.852416085134607</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -4414,11 +4420,11 @@
       </c>
       <c r="I75">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J75">
         <f>I75*D74/C74</f>
-        <v>380.97999572753906</v>
+        <v>23.140196346760284</v>
       </c>
     </row>
     <row r="76" spans="2:12">
@@ -4498,21 +4504,21 @@
       </c>
       <c r="I78">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J78">
         <f>I78*D75/C75</f>
-        <v>570.04623413085937</v>
+        <v>27.081932868107682</v>
       </c>
       <c r="L78">
         <f>D69-D79</f>
-        <v>-357.9345703125</v>
+        <v>-13.048296543107057</v>
       </c>
     </row>
     <row r="79" spans="2:12">
       <c r="D79" s="1">
         <f>SUM(D74:D78)</f>
-        <v>1810.00830078125</v>
+        <v>98.748529779258661</v>
       </c>
     </row>
     <row r="82" spans="2:12">
@@ -4558,15 +4564,15 @@
       </c>
       <c r="C84">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D84">
         <f>$E$3+$H$3+J74</f>
-        <v>1230.0770568847656</v>
+        <v>21.331449651080764</v>
       </c>
       <c r="E84">
         <f>D84/C84</f>
-        <v>15.37596321105957</v>
+        <v>35.55241608513461</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -4576,11 +4582,11 @@
       </c>
       <c r="I84">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J84">
         <f>I84*D85/C85</f>
-        <v>1198.157787322998</v>
+        <v>24.738055377800556</v>
       </c>
     </row>
     <row r="85" spans="2:12">
@@ -4589,15 +4595,15 @@
       </c>
       <c r="C85">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D85">
         <f>SUM(J75:J78)</f>
-        <v>958.52622985839844</v>
+        <v>57.722129214867962</v>
       </c>
       <c r="E85">
         <f>D85/C85</f>
-        <v>23.963155746459961</v>
+        <v>41.230092296334263</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -4607,11 +4613,11 @@
       </c>
       <c r="I85">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J85">
         <f>I85*D84/C84</f>
-        <v>461.27889633178711</v>
+        <v>28.441932868107685</v>
       </c>
     </row>
     <row r="86" spans="2:12">
@@ -4691,21 +4697,21 @@
       </c>
       <c r="I88">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J88">
         <f>I88*D85/C85</f>
-        <v>718.89467239379883</v>
+        <v>32.984073837067413</v>
       </c>
       <c r="L88">
         <f>D79-D89</f>
-        <v>-412.59498596191406</v>
+        <v>-14.305049086690062</v>
       </c>
     </row>
     <row r="89" spans="2:12">
       <c r="D89" s="1">
         <f>SUM(D84:D88)</f>
-        <v>2222.6032867431641</v>
+        <v>113.05357886594872</v>
       </c>
     </row>
     <row r="90" spans="2:12">
@@ -4762,15 +4768,15 @@
       </c>
       <c r="C94">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D94">
         <f>$E$3+$H$3+J84</f>
-        <v>1478.157787322998</v>
+        <v>25.758055377800556</v>
       </c>
       <c r="E94">
         <f>D94/C94</f>
-        <v>18.476972341537476</v>
+        <v>42.930092296334259</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -4780,11 +4786,11 @@
       </c>
       <c r="I94">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J94">
         <f>I94*D95/C95</f>
-        <v>1484.5919609069824</v>
+        <v>29.539717159360759</v>
       </c>
     </row>
     <row r="95" spans="2:12">
@@ -4793,15 +4799,15 @@
       </c>
       <c r="C95">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D95">
         <f>SUM(J85:J88)</f>
-        <v>1187.6735687255859</v>
+        <v>68.926006705175098</v>
       </c>
       <c r="E95">
         <f>D95/C95</f>
-        <v>29.691839218139648</v>
+        <v>49.23286193226793</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -4811,11 +4817,11 @@
       </c>
       <c r="I95">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J95">
         <f>I95*D94/C94</f>
-        <v>554.30917024612427</v>
+        <v>34.344073837067413</v>
       </c>
     </row>
     <row r="96" spans="2:12">
@@ -4895,21 +4901,21 @@
       </c>
       <c r="I98">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J98">
         <f>I98*D95/C95</f>
-        <v>890.75517654418945</v>
+        <v>39.386289545814343</v>
       </c>
       <c r="L98">
         <f>D89-D99</f>
-        <v>-477.22806930541992</v>
+        <v>-15.630483217026935</v>
       </c>
     </row>
     <row r="99" spans="2:12">
       <c r="D99" s="1">
         <f>SUM(D94:D98)</f>
-        <v>2699.831356048584</v>
+        <v>128.68406208297566</v>
       </c>
     </row>
     <row r="100" spans="2:12">
@@ -4974,15 +4980,15 @@
       </c>
       <c r="C104">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D104">
         <f>$E$3+$H$3+J94</f>
-        <v>1764.5919609069824</v>
+        <v>30.559717159360758</v>
       </c>
       <c r="E104">
         <f>D104/C104</f>
-        <v>22.05739951133728</v>
+        <v>50.932861932267933</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -4992,11 +4998,11 @@
       </c>
       <c r="I104">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J104">
         <f>I104*D105/C105</f>
-        <v>1815.7054334878922</v>
+        <v>34.813012878377897</v>
       </c>
     </row>
     <row r="105" spans="2:12">
@@ -5005,15 +5011,15 @@
       </c>
       <c r="C105">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D105">
         <f>SUM(J95:J98)</f>
-        <v>1452.5643467903137</v>
+        <v>81.230363382881762</v>
       </c>
       <c r="E105">
         <f>D105/C105</f>
-        <v>36.314108669757843</v>
+        <v>58.021688130629833</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -5023,11 +5029,11 @@
       </c>
       <c r="I105">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J105">
         <f>I105*D104/C104</f>
-        <v>661.72198534011841</v>
+        <v>40.746289545814349</v>
       </c>
     </row>
     <row r="106" spans="2:12">
@@ -5107,21 +5113,21 @@
       </c>
       <c r="I108">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J108">
         <f>I108*D105/C105</f>
-        <v>1089.4232600927353</v>
+        <v>46.417350504503872</v>
       </c>
       <c r="L108">
         <f>D99-D109</f>
-        <v>-551.32495164871216</v>
+        <v>-17.106018459266863</v>
       </c>
     </row>
     <row r="109" spans="2:12">
       <c r="D109" s="1">
         <f>SUM(D104:D108)</f>
-        <v>3251.1563076972961</v>
+        <v>145.79008054224252</v>
       </c>
     </row>
     <row r="111" spans="2:12">
@@ -5175,15 +5181,15 @@
       </c>
       <c r="C114">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D114">
         <f>$E$3+$H$3+J104</f>
-        <v>2095.7054334878922</v>
+        <v>35.8330128783779</v>
       </c>
       <c r="E114">
         <f>D114/C114</f>
-        <v>26.196317918598652</v>
+        <v>59.721688130629836</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -5193,11 +5199,11 @@
       </c>
       <c r="I114">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J114">
         <f>I114*D115/C115</f>
-        <v>2198.3065567910671</v>
+        <v>40.57013145013638</v>
       </c>
     </row>
     <row r="115" spans="2:12">
@@ -5206,15 +5212,15 @@
       </c>
       <c r="C115">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D115">
         <f>SUM(J105:J108)</f>
-        <v>1758.6452454328537</v>
+        <v>94.663640050318222</v>
       </c>
       <c r="E115">
         <f>D115/C115</f>
-        <v>43.966131135821342</v>
+        <v>67.616885750227311</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -5224,11 +5230,11 @@
       </c>
       <c r="I115">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J115">
         <f>I115*D114/C114</f>
-        <v>785.88953755795956</v>
+        <v>47.777350504503872</v>
       </c>
     </row>
     <row r="116" spans="2:12">
@@ -5308,21 +5314,21 @@
       </c>
       <c r="I118">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J118">
         <f>I118*D115/C115</f>
-        <v>1318.9839340746403</v>
+        <v>54.093508600181849</v>
       </c>
       <c r="L118">
         <f>D109-D119</f>
-        <v>-637.19437122344971</v>
+        <v>-18.706572386453587</v>
       </c>
     </row>
     <row r="119" spans="2:12">
       <c r="D119" s="1">
         <f>SUM(D114:D118)</f>
-        <v>3888.3506789207458</v>
+        <v>164.49665292869611</v>
       </c>
     </row>
     <row r="122" spans="2:12">
@@ -5368,15 +5374,15 @@
       </c>
       <c r="C124">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D124">
         <f>$E$3+$H$3+J114</f>
-        <v>2478.3065567910671</v>
+        <v>41.590131450136383</v>
       </c>
       <c r="E124">
         <f>D124/C124</f>
-        <v>30.978831959888339</v>
+        <v>69.316885750227314</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -5386,11 +5392,11 @@
       </c>
       <c r="I124">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J124">
         <f>I124*D125/C125</f>
-        <v>2640.4668395407498</v>
+        <v>46.873225330579601</v>
       </c>
     </row>
     <row r="125" spans="2:12">
@@ -5399,15 +5405,15 @@
       </c>
       <c r="C125">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D125">
         <f>SUM(J115:J118)</f>
-        <v>2112.3734716325998</v>
+        <v>109.37085910468572</v>
       </c>
       <c r="E125">
         <f>D125/C125</f>
-        <v>52.809336790814996</v>
+        <v>78.122042217632668</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -5417,11 +5423,11 @@
       </c>
       <c r="I125">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J125">
         <f>I125*D124/C124</f>
-        <v>929.36495879665017</v>
+        <v>55.453508600181848</v>
       </c>
     </row>
     <row r="126" spans="2:12">
@@ -5501,21 +5507,21 @@
       </c>
       <c r="I128">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J128">
         <f>I128*D125/C125</f>
-        <v>1584.2801037244499</v>
+        <v>62.497633774106134</v>
       </c>
       <c r="L128">
         <f>D119-D129</f>
-        <v>-736.3293495029211</v>
+        <v>-20.464337626125996</v>
       </c>
     </row>
     <row r="129" spans="2:12">
       <c r="D129" s="1">
         <f>SUM(D124:D128)</f>
-        <v>4624.680028423667</v>
+        <v>184.9609905548221</v>
       </c>
     </row>
     <row r="132" spans="2:12">
@@ -5561,15 +5567,15 @@
       </c>
       <c r="C134">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D134">
         <f>$E$3+$H$3+J124</f>
-        <v>2920.4668395407498</v>
+        <v>47.893225330579604</v>
       </c>
       <c r="E134">
         <f>D134/C134</f>
-        <v>36.505835494259372</v>
+        <v>79.822042217632671</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -5579,11 +5585,11 @@
       </c>
       <c r="I134">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J134">
         <f>I134*D135/C135</f>
-        <v>3151.4313281513751</v>
+        <v>53.764775303266283</v>
       </c>
     </row>
     <row r="135" spans="2:12">
@@ -5592,15 +5598,15 @@
       </c>
       <c r="C135">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D135">
         <f>SUM(J125:J128)</f>
-        <v>2521.1450625211</v>
+        <v>125.45114237428798</v>
       </c>
       <c r="E135">
         <f>D135/C135</f>
-        <v>63.028626563027501</v>
+        <v>89.607958838777137</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -5610,11 +5616,11 @@
       </c>
       <c r="I135">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J135">
         <f>I135*D134/C134</f>
-        <v>1095.1750648277812</v>
+        <v>63.857633774106148</v>
       </c>
     </row>
     <row r="136" spans="2:12">
@@ -5694,21 +5700,21 @@
       </c>
       <c r="I138">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J138">
         <f>I138*D135/C135</f>
-        <v>1890.858796890825</v>
+        <v>71.686367071021706</v>
       </c>
       <c r="L138">
         <f>D129-D139</f>
-        <v>-850.93187363818288</v>
+        <v>-22.383377150045476</v>
       </c>
     </row>
     <row r="139" spans="2:12">
       <c r="D139" s="1">
         <f>SUM(D134:D138)</f>
-        <v>5475.6119020618498</v>
+        <v>207.34436770486758</v>
       </c>
     </row>
     <row r="142" spans="2:12">
@@ -5754,15 +5760,15 @@
       </c>
       <c r="C144">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D144">
         <f>$E$3+$H$3+J134</f>
-        <v>3431.4313281513751</v>
+        <v>54.784775303266287</v>
       </c>
       <c r="E144">
         <f>D144/C144</f>
-        <v>42.892891601892188</v>
+        <v>91.307958838777154</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -5772,11 +5778,11 @@
       </c>
       <c r="I144">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J144">
         <f>I144*D145/C145</f>
-        <v>3741.9173271482578</v>
+        <v>61.304571790769081</v>
       </c>
     </row>
     <row r="145" spans="2:12">
@@ -5785,15 +5791,15 @@
       </c>
       <c r="C145">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D145">
         <f>SUM(J135:J138)</f>
-        <v>2993.5338617186062</v>
+        <v>143.04400084512787</v>
       </c>
       <c r="E145">
         <f>D145/C145</f>
-        <v>74.838346542965155</v>
+        <v>102.17428631794849</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -5803,11 +5809,11 @@
       </c>
       <c r="I145">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J145">
         <f>I145*D144/C144</f>
-        <v>1286.7867480567656</v>
+        <v>73.04636707102172</v>
       </c>
     </row>
     <row r="146" spans="2:12">
@@ -5887,21 +5893,21 @@
       </c>
       <c r="I148">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J148">
         <f>I148*D145/C145</f>
-        <v>2245.1503962889547</v>
+        <v>81.739429054358794</v>
       </c>
       <c r="L148">
         <f>D139-D149</f>
-        <v>-983.35328780813143</v>
+        <v>-24.484408443526576</v>
       </c>
     </row>
     <row r="149" spans="2:12">
       <c r="D149" s="1">
         <f>SUM(D144:D148)</f>
-        <v>6458.9651898699813</v>
+        <v>231.82877614839416</v>
       </c>
     </row>
     <row r="152" spans="2:12">
@@ -5947,15 +5953,15 @@
       </c>
       <c r="C154">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D154">
         <f>$E$3+$H$3+J144</f>
-        <v>4021.9173271482578</v>
+        <v>62.324571790769085</v>
       </c>
       <c r="E154">
         <f>D154/C154</f>
-        <v>50.273966589353222</v>
+        <v>103.87428631794847</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -5965,11 +5971,11 @@
       </c>
       <c r="I154">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J154">
         <f>I154*D155/C155</f>
-        <v>4424.2964304321504</v>
+        <v>69.551055482305927</v>
       </c>
     </row>
     <row r="155" spans="2:12">
@@ -5978,15 +5984,15 @@
       </c>
       <c r="C155">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D155">
         <f>SUM(J145:J148)</f>
-        <v>3539.4371443457203</v>
+        <v>162.2857961253805</v>
       </c>
       <c r="E155">
         <f>D155/C155</f>
-        <v>88.485928608643007</v>
+        <v>115.91842580384322</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -5996,11 +6002,11 @@
       </c>
       <c r="I155">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J155">
         <f>I155*D154/C154</f>
-        <v>1508.2189976805967</v>
+        <v>83.099429054358794</v>
       </c>
     </row>
     <row r="156" spans="2:12">
@@ -6080,21 +6086,21 @@
       </c>
       <c r="I158">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J158">
         <f>I158*D155/C155</f>
-        <v>2654.5778582592902</v>
+        <v>92.734740643074588</v>
       </c>
       <c r="L158">
         <f>D149-D159</f>
-        <v>-1136.3892816239968</v>
+        <v>-26.78159176775543</v>
       </c>
     </row>
     <row r="159" spans="2:12">
       <c r="D159" s="1">
         <f>SUM(D154:D158)</f>
-        <v>7595.3544714939781</v>
+        <v>258.61036791614958</v>
       </c>
     </row>
     <row r="162" spans="2:12">
@@ -6140,15 +6146,15 @@
       </c>
       <c r="C164">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D164">
         <f>$E$3+$H$3+J154</f>
-        <v>4704.2964304321504</v>
+        <v>70.571055482305923</v>
       </c>
       <c r="E164">
         <f>D164/C164</f>
-        <v>58.80370538040188</v>
+        <v>117.61842580384321</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -6158,11 +6164,11 @@
       </c>
       <c r="I164">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J164">
         <f>I164*D165/C165</f>
-        <v>5212.8710699248586</v>
+        <v>78.571787013185741</v>
       </c>
     </row>
     <row r="165" spans="2:12">
@@ -6171,15 +6177,15 @@
       </c>
       <c r="C165">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D165">
         <f>SUM(J155:J158)</f>
-        <v>4170.2968559398869</v>
+        <v>183.33416969743337</v>
       </c>
       <c r="E165">
         <f>D165/C165</f>
-        <v>104.25742139849717</v>
+        <v>130.95297835530957</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -6189,11 +6195,11 @@
       </c>
       <c r="I165">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J165">
         <f>I165*D164/C164</f>
-        <v>1764.1111614120564</v>
+        <v>94.094740643074573</v>
       </c>
     </row>
     <row r="166" spans="2:12">
@@ -6273,21 +6279,21 @@
       </c>
       <c r="I168">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J168">
         <f>I168*D165/C165</f>
-        <v>3127.7226419549152</v>
+        <v>104.76238268424764</v>
       </c>
       <c r="L168">
         <f>D159-D169</f>
-        <v>-1313.2388148780592</v>
+        <v>-29.294857263589734</v>
       </c>
     </row>
     <row r="169" spans="2:12">
       <c r="D169" s="1">
         <f>SUM(D164:D168)</f>
-        <v>8908.5932863720373</v>
+        <v>287.90522517973932</v>
       </c>
     </row>
     <row r="172" spans="2:12">
@@ -6333,15 +6339,15 @@
       </c>
       <c r="C174">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D174">
         <f>$E$3+$H$3+J164</f>
-        <v>5492.8710699248586</v>
+        <v>79.591787013185737</v>
       </c>
       <c r="E174">
         <f>D174/C174</f>
-        <v>68.660888374060733</v>
+        <v>132.65297835530956</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -6351,11 +6357,11 @@
       </c>
       <c r="I174">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J174">
         <f>I174*D175/C175</f>
-        <v>6124.1672542087144</v>
+        <v>88.438767140280945</v>
       </c>
     </row>
     <row r="175" spans="2:12">
@@ -6364,15 +6370,15 @@
       </c>
       <c r="C175">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D175">
         <f>SUM(J165:J168)</f>
-        <v>4899.3338033669716</v>
+        <v>206.3571233273222</v>
       </c>
       <c r="E175">
         <f>D175/C175</f>
-        <v>122.48334508417429</v>
+        <v>147.39794523380158</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -6382,11 +6388,11 @@
       </c>
       <c r="I175">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J175">
         <f>I175*D174/C174</f>
-        <v>2059.826651221822</v>
+        <v>106.12238268424767</v>
       </c>
     </row>
     <row r="176" spans="2:12">
@@ -6466,21 +6472,21 @@
       </c>
       <c r="I178">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J178">
         <f>I178*D175/C175</f>
-        <v>3674.5003525252287</v>
+        <v>117.91835618704128</v>
       </c>
       <c r="L178">
         <f>D169-D179</f>
-        <v>-1517.6115869197929</v>
+        <v>-32.043685160768632</v>
       </c>
     </row>
     <row r="179" spans="2:12">
       <c r="D179" s="1">
         <f>SUM(D174:D178)</f>
-        <v>10426.20487329183</v>
+        <v>319.94891034050795</v>
       </c>
     </row>
     <row r="182" spans="2:12">
@@ -6526,15 +6532,15 @@
       </c>
       <c r="C184">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D184">
         <f>$E$3+$H$3+J174</f>
-        <v>6404.1672542087144</v>
+        <v>89.458767140280941</v>
       </c>
       <c r="E184">
         <f>D184/C184</f>
-        <v>80.05209067760893</v>
+        <v>149.09794523380157</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -6544,11 +6550,11 @@
       </c>
       <c r="I184">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J184">
         <f>I184*D185/C185</f>
-        <v>7177.2837546838127</v>
+        <v>99.23174523055242</v>
       </c>
     </row>
     <row r="185" spans="2:12">
@@ -6557,15 +6563,15 @@
       </c>
       <c r="C185">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D185">
         <f>SUM(J175:J178)</f>
-        <v>5741.8270037470502</v>
+        <v>231.54073887128897</v>
       </c>
       <c r="E185">
         <f>D185/C185</f>
-        <v>143.54567509367627</v>
+        <v>165.38624205092071</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -6575,11 +6581,11 @@
       </c>
       <c r="I185">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J185">
         <f>I185*D184/C184</f>
-        <v>2401.5627203282679</v>
+        <v>119.27835618704125</v>
       </c>
     </row>
     <row r="186" spans="2:12">
@@ -6659,21 +6665,21 @@
       </c>
       <c r="I188">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J188">
         <f>I188*D185/C185</f>
-        <v>4306.3702528102876</v>
+        <v>132.30899364073656</v>
       </c>
       <c r="L188">
         <f>D179-D189</f>
-        <v>-1753.7893846639345</v>
+        <v>-35.050595671061956</v>
       </c>
     </row>
     <row r="189" spans="2:12">
       <c r="D189" s="1">
         <f>SUM(D184:D188)</f>
-        <v>12179.994257955765</v>
+        <v>354.99950601156991</v>
       </c>
     </row>
     <row r="192" spans="2:12">
@@ -6719,15 +6725,15 @@
       </c>
       <c r="C194">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D194">
         <f>$E$3+$H$3+J184</f>
-        <v>7457.2837546838127</v>
+        <v>100.25174523055242</v>
       </c>
       <c r="E194">
         <f>D194/C194</f>
-        <v>93.216046933547659</v>
+        <v>167.0862420509207</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -6737,11 +6743,11 @@
       </c>
       <c r="I194">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J194">
         <f>I194*D195/C195</f>
-        <v>8394.291216423193</v>
+        <v>111.03743564047622</v>
       </c>
     </row>
     <row r="195" spans="2:12">
@@ -6750,15 +6756,15 @@
       </c>
       <c r="C195">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D195">
         <f>SUM(J185:J188)</f>
-        <v>6715.4329731385551</v>
+        <v>259.08734982777781</v>
       </c>
       <c r="E195">
         <f>D195/C195</f>
-        <v>167.88582432846388</v>
+        <v>185.06239273412703</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -6768,11 +6774,11 @@
       </c>
       <c r="I195">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J195">
         <f>I195*D194/C194</f>
-        <v>2796.4814080064298</v>
+        <v>133.66899364073657</v>
       </c>
     </row>
     <row r="196" spans="2:12">
@@ -6852,21 +6858,21 @@
       </c>
       <c r="I198">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J198">
         <f>I198*D195/C195</f>
-        <v>5036.5747298539163</v>
+        <v>148.04991418730162</v>
       </c>
       <c r="L198">
         <f>D189-D199</f>
-        <v>-2026.7224698666032</v>
+        <v>-38.339589046760352</v>
       </c>
     </row>
     <row r="199" spans="2:12">
       <c r="D199" s="1">
         <f>SUM(D194:D198)</f>
-        <v>14206.716727822368</v>
+        <v>393.33909505833026</v>
       </c>
     </row>
     <row r="202" spans="2:12">
@@ -6912,15 +6918,15 @@
       </c>
       <c r="C204">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D204">
         <f>$E$3+$H$3+J194</f>
-        <v>8674.291216423193</v>
+        <v>112.05743564047621</v>
       </c>
       <c r="E204">
         <f>D204/C204</f>
-        <v>108.42864020528991</v>
+        <v>186.76239273412702</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -6930,11 +6936,11 @@
       </c>
       <c r="I204">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J204">
         <f>I204*D205/C205</f>
-        <v>9800.6951723254333</v>
+        <v>123.95096049773066</v>
       </c>
     </row>
     <row r="205" spans="2:12">
@@ -6943,15 +6949,15 @@
       </c>
       <c r="C205">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D205">
         <f>SUM(J195:J198)</f>
-        <v>7840.5561378603461</v>
+        <v>289.2189078280382</v>
       </c>
       <c r="E205">
         <f>D205/C205</f>
-        <v>196.01390344650866</v>
+        <v>206.58493416288445</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -6961,11 +6967,11 @@
       </c>
       <c r="I205">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J205">
         <f>I205*D204/C204</f>
-        <v>3252.8592061586974</v>
+        <v>149.40991418730164</v>
       </c>
     </row>
     <row r="206" spans="2:12">
@@ -7045,21 +7051,21 @@
       </c>
       <c r="I208">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J208">
         <f>I208*D205/C205</f>
-        <v>5880.4171033952598</v>
+        <v>165.26794733030755</v>
       </c>
       <c r="L208">
         <f>D199-D209</f>
-        <v>-2342.1306264611703</v>
+        <v>-41.937248410184168</v>
       </c>
     </row>
     <row r="209" spans="2:12">
       <c r="D209" s="1">
         <f>SUM(D204:D208)</f>
-        <v>16548.847354283538</v>
+        <v>435.27634346851443</v>
       </c>
     </row>
     <row r="212" spans="2:12">
@@ -7105,15 +7111,15 @@
       </c>
       <c r="C214">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D214">
         <f>$E$3+$H$3+J204</f>
-        <v>10080.695172325433</v>
+        <v>124.97096049773066</v>
       </c>
       <c r="E214">
         <f>D214/C214</f>
-        <v>126.00868965406792</v>
+        <v>208.28493416288444</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -7123,11 +7129,11 @@
       </c>
       <c r="I214">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J214">
         <f>I214*D215/C215</f>
-        <v>11425.970386942447</v>
+        <v>138.07622636468966</v>
       </c>
     </row>
     <row r="215" spans="2:12">
@@ -7136,15 +7142,15 @@
       </c>
       <c r="C215">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D215">
         <f>SUM(J205:J208)</f>
-        <v>9140.7763095539576</v>
+        <v>322.17786151760919</v>
       </c>
       <c r="E215">
         <f>D215/C215</f>
-        <v>228.51940773884894</v>
+        <v>230.12704394114942</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -7154,11 +7160,11 @@
       </c>
       <c r="I215">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J215">
         <f>I215*D214/C214</f>
-        <v>3780.2606896220373</v>
+        <v>166.62794733030756</v>
       </c>
     </row>
     <row r="216" spans="2:12">
@@ -7238,27 +7244,27 @@
       </c>
       <c r="I218">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J218">
         <f>I218*D215/C215</f>
-        <v>6855.5822321654678</v>
+        <v>184.10163515291956</v>
       </c>
       <c r="L218">
         <f>D209-D219</f>
-        <v>-2706.6241275958528</v>
+        <v>-45.872478546825448</v>
       </c>
     </row>
     <row r="219" spans="2:12">
       <c r="D219" s="1">
         <f>SUM(D214:D218)</f>
-        <v>19255.471481879391</v>
+        <v>481.14882201533987</v>
       </c>
     </row>
     <row r="221" spans="2:12">
       <c r="D221">
         <f>D224/C224</f>
-        <v>146.32462983678059</v>
+        <v>231.82704394114947</v>
       </c>
     </row>
     <row r="222" spans="2:12">
@@ -7304,15 +7310,15 @@
       </c>
       <c r="C224">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D224">
         <f>$E$3+$H$3+J214</f>
-        <v>11705.970386942447</v>
+        <v>139.09622636468967</v>
       </c>
       <c r="E224">
         <f>D224/C224</f>
-        <v>146.32462983678059</v>
+        <v>231.82704394114947</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -7322,11 +7328,11 @@
       </c>
       <c r="I224">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J224">
         <f>I224*D225/C225</f>
-        <v>13304.178652234381</v>
+        <v>153.52696392138304</v>
       </c>
     </row>
     <row r="225" spans="2:12">
@@ -7335,15 +7341,15 @@
       </c>
       <c r="C225">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D225">
         <f>SUM(J215:J218)</f>
-        <v>10643.342921787505</v>
+        <v>358.22958248322709</v>
       </c>
       <c r="E225">
         <f>D225/C225</f>
-        <v>266.08357304468763</v>
+        <v>255.87827320230508</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -7353,11 +7359,11 @@
       </c>
       <c r="I225">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J225">
         <f>I225*D224/C224</f>
-        <v>4389.7388951034172</v>
+        <v>185.46163515291957</v>
       </c>
     </row>
     <row r="226" spans="2:12">
@@ -7437,21 +7443,21 @@
       </c>
       <c r="I228">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J228">
         <f>I228*D225/C225</f>
-        <v>7982.50719134063</v>
+        <v>204.70261856184408</v>
       </c>
       <c r="L228">
         <f>D219-D229</f>
-        <v>-3127.8418268505593</v>
+        <v>-50.176986832576858</v>
       </c>
     </row>
     <row r="229" spans="2:12">
       <c r="D229" s="1">
         <f>SUM(D224:D228)</f>
-        <v>22383.31330872995</v>
+        <v>531.32580884791673</v>
       </c>
     </row>
     <row r="232" spans="2:12">
@@ -7497,15 +7503,15 @@
       </c>
       <c r="C234">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D234">
         <f>$E$3+$H$3+J224</f>
-        <v>13584.178652234381</v>
+        <v>154.54696392138305</v>
       </c>
       <c r="E234">
         <f>D234/C234</f>
-        <v>169.80223315292977</v>
+        <v>257.57827320230513</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -7515,11 +7521,11 @@
       </c>
       <c r="I234">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J234">
         <f>I234*D235/C235</f>
-        <v>15474.682608055058</v>
+        <v>170.42753730632725</v>
       </c>
     </row>
     <row r="235" spans="2:12">
@@ -7528,15 +7534,15 @@
       </c>
       <c r="C235">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D235">
         <f>SUM(J225:J228)</f>
-        <v>12379.746086444047</v>
+        <v>397.66425371476362</v>
       </c>
       <c r="E235">
         <f>D235/C235</f>
-        <v>309.49365216110118</v>
+        <v>284.04589551054545</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -7546,11 +7552,11 @@
       </c>
       <c r="I235">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J235">
         <f>I235*D234/C234</f>
-        <v>5094.0669945878926</v>
+        <v>206.06261856184409</v>
       </c>
     </row>
     <row r="236" spans="2:12">
@@ -7630,21 +7636,21 @@
       </c>
       <c r="I238">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J238">
         <f>I238*D235/C235</f>
-        <v>9284.8095648330363</v>
+        <v>227.23671640843639</v>
       </c>
       <c r="L238">
         <f>D229-D239</f>
-        <v>-3614.6114299484761</v>
+        <v>-54.885408788229938</v>
       </c>
     </row>
     <row r="239" spans="2:12">
       <c r="D239" s="1">
         <f>SUM(D234:D238)</f>
-        <v>25997.924738678426</v>
+        <v>586.21121763614667</v>
       </c>
     </row>
     <row r="242" spans="2:12">
@@ -7690,15 +7696,15 @@
       </c>
       <c r="C244">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D244">
         <f>$E$3+$H$3+J234</f>
-        <v>15754.682608055058</v>
+        <v>171.44753730632726</v>
       </c>
       <c r="E244">
         <f>D244/C244</f>
-        <v>196.93353260068824</v>
+        <v>285.74589551054544</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -7708,11 +7714,11 @@
       </c>
       <c r="I244">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J244">
         <f>I244*D245/C245</f>
-        <v>17982.97069927616</v>
+        <v>188.91400070154879</v>
       </c>
     </row>
     <row r="245" spans="2:12">
@@ -7721,15 +7727,15 @@
       </c>
       <c r="C245">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D245">
         <f>SUM(J235:J238)</f>
-        <v>14386.376559420929</v>
+        <v>440.79933497028048</v>
       </c>
       <c r="E245">
         <f>D245/C245</f>
-        <v>359.6594139855232</v>
+        <v>314.85666783591466</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -7739,11 +7745,11 @@
       </c>
       <c r="I245">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J245">
         <f>I245*D244/C244</f>
-        <v>5908.0059780206466</v>
+        <v>228.59671640843635</v>
       </c>
     </row>
     <row r="246" spans="2:12">
@@ -7823,21 +7829,21 @@
       </c>
       <c r="I248">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J248">
         <f>I248*D245/C245</f>
-        <v>10789.782419565698</v>
+        <v>251.88533426873173</v>
       </c>
       <c r="L248">
         <f>D239-D249</f>
-        <v>-4177.1344287975589</v>
+        <v>-60.035654640461075</v>
       </c>
     </row>
     <row r="249" spans="2:12">
       <c r="D249" s="1">
         <f>SUM(D244:D248)</f>
-        <v>30175.059167475985</v>
+        <v>646.24687227660775</v>
       </c>
     </row>
     <row r="252" spans="2:12">
@@ -7883,15 +7889,15 @@
       </c>
       <c r="C254">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D254">
         <f>$E$3+$H$3+J244</f>
-        <v>18262.97069927616</v>
+        <v>189.9340007015488</v>
       </c>
       <c r="E254">
         <f>D254/C254</f>
-        <v>228.28713374095202</v>
+        <v>316.55666783591465</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -7901,11 +7907,11 @@
       </c>
       <c r="I254">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J254">
         <f>I254*D255/C255</f>
-        <v>20881.610496982928</v>
+        <v>209.1351645759292</v>
       </c>
     </row>
     <row r="255" spans="2:12">
@@ -7914,15 +7920,15 @@
       </c>
       <c r="C255">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D255">
         <f>SUM(J245:J248)</f>
-        <v>16705.288397586344</v>
+        <v>487.9820506771681</v>
       </c>
       <c r="E255">
         <f>D255/C255</f>
-        <v>417.63220993965859</v>
+        <v>348.55860762654868</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -7932,11 +7938,11 @@
       </c>
       <c r="I255">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J255">
         <f>I255*D254/C254</f>
-        <v>6848.6140122285606</v>
+        <v>253.24533426873174</v>
       </c>
     </row>
     <row r="256" spans="2:12">
@@ -8016,21 +8022,21 @@
       </c>
       <c r="I258">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J258">
         <f>I258*D255/C255</f>
-        <v>12528.966298189758</v>
+        <v>278.84688610123897</v>
       </c>
       <c r="L258">
         <f>D249-D259</f>
-        <v>-4827.1999293865156</v>
+        <v>-65.669179102109183</v>
       </c>
     </row>
     <row r="259" spans="2:12">
       <c r="D259" s="1">
         <f>SUM(D254:D258)</f>
-        <v>35002.259096862501</v>
+        <v>711.91605137871693</v>
       </c>
     </row>
     <row r="262" spans="2:12">
@@ -8076,15 +8082,15 @@
       </c>
       <c r="C264">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D264">
         <f>$E$3+$H$3+J254</f>
-        <v>21161.610496982928</v>
+        <v>210.15516457592921</v>
       </c>
       <c r="E264">
         <f>D264/C264</f>
-        <v>264.52013121228663</v>
+        <v>350.25860762654867</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -8094,11 +8100,11 @@
       </c>
       <c r="I264">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J264">
         <f>I264*D265/C265</f>
-        <v>24231.350388022896</v>
+        <v>231.25380872998747</v>
       </c>
     </row>
     <row r="265" spans="2:12">
@@ -8107,15 +8113,15 @@
       </c>
       <c r="C265">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D265">
         <f>SUM(J255:J258)</f>
-        <v>19385.080310418318</v>
+        <v>539.59222036997073</v>
       </c>
       <c r="E265">
         <f>D265/C265</f>
-        <v>484.62700776045796</v>
+        <v>385.42301454997914</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -8125,11 +8131,11 @@
       </c>
       <c r="I265">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J265">
         <f>I265*D264/C264</f>
-        <v>7935.6039363685977</v>
+        <v>280.20688610123898</v>
       </c>
     </row>
     <row r="266" spans="2:12">
@@ -8209,21 +8215,21 @@
       </c>
       <c r="I268">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J268">
         <f>I268*D265/C265</f>
-        <v>14538.810232813737</v>
+        <v>308.33841163998329</v>
       </c>
       <c r="L268">
         <f>D259-D269</f>
-        <v>-5578.4317105387454</v>
+        <v>-71.831333567183037</v>
       </c>
     </row>
     <row r="269" spans="2:12">
       <c r="D269" s="1">
         <f>SUM(D264:D268)</f>
-        <v>40580.690807401246</v>
+        <v>783.74738494589997</v>
       </c>
     </row>
     <row r="272" spans="2:12">
@@ -8269,15 +8275,15 @@
       </c>
       <c r="C274">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D274">
         <f>$E$3+$H$3+J264</f>
-        <v>24511.350388022896</v>
+        <v>232.27380872998748</v>
       </c>
       <c r="E274">
         <f>D274/C274</f>
-        <v>306.39187985028622</v>
+        <v>387.12301454997913</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -8287,11 +8293,11 @@
       </c>
       <c r="I274">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J274">
         <f>I274*D275/C275</f>
-        <v>28102.392711477918</v>
+        <v>255.44798474623812</v>
       </c>
     </row>
     <row r="275" spans="2:12">
@@ -8300,15 +8306,15 @@
       </c>
       <c r="C275">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D275">
         <f>SUM(J265:J268)</f>
-        <v>22481.914169182335</v>
+        <v>596.04529774122227</v>
       </c>
       <c r="E275">
         <f>D275/C275</f>
-        <v>562.04785422955842</v>
+        <v>425.74664124373021</v>
       </c>
       <c r="G275">
         <v>2</v>
@@ -8318,11 +8324,11 @@
       </c>
       <c r="I275">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J275">
         <f>I275*D274/C274</f>
-        <v>9191.7563955085861</v>
+        <v>309.69841163998336</v>
       </c>
     </row>
     <row r="276" spans="2:12">
@@ -8402,21 +8408,21 @@
       </c>
       <c r="I278">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J278">
         <f>I278*D275/C275</f>
-        <v>16861.435626886749</v>
+        <v>340.59731299498418</v>
       </c>
       <c r="L278">
         <f>D269-D279</f>
-        <v>-6446.5737498039816</v>
+        <v>-78.57172152530984</v>
       </c>
     </row>
     <row r="279" spans="2:12">
       <c r="D279" s="1">
         <f>SUM(D274:D278)</f>
-        <v>47027.264557205228</v>
+        <v>862.31910647120981</v>
       </c>
     </row>
     <row r="282" spans="2:12">
@@ -8462,15 +8468,15 @@
       </c>
       <c r="C284">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D284">
         <f>$E$3+$H$3+J274</f>
-        <v>28382.392711477918</v>
+        <v>256.46798474623813</v>
       </c>
       <c r="E284">
         <f>D284/C284</f>
-        <v>354.77990889347399</v>
+        <v>427.44664124373026</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -8480,11 +8486,11 @@
       </c>
       <c r="I284">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J284">
         <f>I284*D285/C285</f>
-        <v>32575.865027994168</v>
+        <v>281.91245341498609</v>
       </c>
     </row>
     <row r="285" spans="2:12">
@@ -8493,15 +8499,15 @@
       </c>
       <c r="C285">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D285">
         <f>SUM(J275:J278)</f>
-        <v>26060.692022395335</v>
+        <v>657.79572463496754</v>
       </c>
       <c r="E285">
         <f>D285/C285</f>
-        <v>651.51730055988332</v>
+        <v>469.85408902497687</v>
       </c>
       <c r="G285">
         <v>2</v>
@@ -8511,11 +8517,11 @@
       </c>
       <c r="I285">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J285">
         <f>I285*D284/C284</f>
-        <v>10643.397266804219</v>
+        <v>341.95731299498419</v>
       </c>
     </row>
     <row r="286" spans="2:12">
@@ -8595,21 +8601,21 @@
       </c>
       <c r="I288">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J288">
         <f>I288*D285/C285</f>
-        <v>19545.519016796501</v>
+        <v>375.88327121998151</v>
       </c>
       <c r="L288">
         <f>D279-D289</f>
-        <v>-7449.8201766680286</v>
+        <v>-85.944602909995865</v>
       </c>
     </row>
     <row r="289" spans="2:12">
       <c r="D289" s="1">
         <f>SUM(D284:D288)</f>
-        <v>54477.084733873256</v>
+        <v>948.26370938120567</v>
       </c>
     </row>
     <row r="292" spans="2:12">
@@ -8655,15 +8661,15 @@
       </c>
       <c r="C294">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D294">
         <f>$E$3+$H$3+J284</f>
-        <v>32855.865027994165</v>
+        <v>282.93245341498607</v>
       </c>
       <c r="E294">
         <f>D294/C294</f>
-        <v>410.69831284992705</v>
+        <v>471.5540890249768</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -8673,11 +8679,11 @@
       </c>
       <c r="I294">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J294">
         <f>I294*D295/C295</f>
-        <v>37745.520354500899</v>
+        <v>310.86025037784248</v>
       </c>
     </row>
     <row r="295" spans="2:12">
@@ -8686,15 +8692,15 @@
       </c>
       <c r="C295">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D295">
         <f>SUM(J285:J288)</f>
-        <v>30196.41628360072</v>
+        <v>725.3405842149657</v>
       </c>
       <c r="E295">
         <f>D295/C295</f>
-        <v>754.910407090018</v>
+        <v>518.10041729640409</v>
       </c>
       <c r="G295">
         <v>2</v>
@@ -8704,11 +8710,11 @@
       </c>
       <c r="I295">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J295">
         <f>I295*D294/C294</f>
-        <v>12320.949385497812</v>
+        <v>377.24327121998147</v>
       </c>
     </row>
     <row r="296" spans="2:12">
@@ -8788,21 +8794,21 @@
       </c>
       <c r="I298">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J298">
         <f>I298*D295/C295</f>
-        <v>22647.312212700541</v>
+        <v>414.48033383712328</v>
       </c>
       <c r="L298">
         <f>D289-D299</f>
-        <v>-8609.1965777216246</v>
+        <v>-94.009328248746215</v>
       </c>
     </row>
     <row r="299" spans="2:12">
       <c r="D299" s="1">
         <f>SUM(D294:D298)</f>
-        <v>63086.281311594881</v>
+        <v>1042.2730376299519</v>
       </c>
     </row>
     <row r="302" spans="2:12">
@@ -8848,15 +8854,15 @@
       </c>
       <c r="C304">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D304">
         <f>$E$3+$H$3+J294</f>
-        <v>38025.520354500899</v>
+        <v>311.88025037784246</v>
       </c>
       <c r="E304">
         <f>D304/C304</f>
-        <v>475.31900443126125</v>
+        <v>519.80041729640413</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -8866,11 +8872,11 @@
       </c>
       <c r="I304">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J304">
         <f>I304*D305/C305</f>
-        <v>43719.701997747943</v>
+        <v>342.52440216733066</v>
       </c>
     </row>
     <row r="305" spans="2:12">
@@ -8879,15 +8885,15 @@
       </c>
       <c r="C305">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D305">
         <f>SUM(J295:J298)</f>
-        <v>34975.761598198354</v>
+        <v>799.22360505710481</v>
       </c>
       <c r="E305">
         <f>D305/C305</f>
-        <v>874.39403995495888</v>
+        <v>570.87400361221773</v>
       </c>
       <c r="G305">
         <v>2</v>
@@ -8897,11 +8903,11 @@
       </c>
       <c r="I305">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J305">
         <f>I305*D304/C304</f>
-        <v>14259.570132937839</v>
+        <v>415.8403338371233</v>
       </c>
     </row>
     <row r="306" spans="2:12">
@@ -8981,21 +8987,21 @@
       </c>
       <c r="I308">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J308">
         <f>I308*D305/C305</f>
-        <v>26231.821198648766</v>
+        <v>456.69920288977426</v>
       </c>
       <c r="L308">
         <f>D299-D309</f>
-        <v>-9949.0006411043723</v>
+        <v>-102.83081780499538</v>
       </c>
     </row>
     <row r="309" spans="2:12">
       <c r="D309" s="1">
         <f>SUM(D304:D308)</f>
-        <v>73035.281952699253</v>
+        <v>1145.1038554349473</v>
       </c>
     </row>
     <row r="312" spans="2:12">
@@ -9041,15 +9047,15 @@
       </c>
       <c r="C314">
         <f>$D$3+$G$3+$P$5</f>
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="D314">
         <f>$E$3+$H$3+J304</f>
-        <v>43999.701997747943</v>
+        <v>343.54440216733065</v>
       </c>
       <c r="E314">
         <f>D314/C314</f>
-        <v>549.99627497184929</v>
+        <v>572.57400361221778</v>
       </c>
       <c r="G314">
         <v>1</v>
@@ -9059,11 +9065,11 @@
       </c>
       <c r="I314">
         <f>$N$6</f>
-        <v>50</v>
+        <v>0.6</v>
       </c>
       <c r="J314">
         <f>I314*D315/C315</f>
-        <v>50623.614164483261</v>
+        <v>377.15980145438465</v>
       </c>
     </row>
     <row r="315" spans="2:12">
@@ -9072,15 +9078,15 @@
       </c>
       <c r="C315">
         <f>$J$6+$P$4</f>
-        <v>40</v>
+        <v>1.4</v>
       </c>
       <c r="D315">
         <f>SUM(J305:J308)</f>
-        <v>40498.891331586608</v>
+        <v>880.0395367268975</v>
       </c>
       <c r="E315">
         <f>D315/C315</f>
-        <v>1012.4722832896653</v>
+        <v>628.5996690906411</v>
       </c>
       <c r="G315">
         <v>2</v>
@@ -9090,11 +9096,11 @@
       </c>
       <c r="I315">
         <f>$N$3</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J315">
         <f>I315*D314/C314</f>
-        <v>16499.888249155476</v>
+        <v>458.05920288977427</v>
       </c>
     </row>
     <row r="316" spans="2:12">
@@ -9174,21 +9180,21 @@
       </c>
       <c r="I318">
         <f>$L$4</f>
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="J318">
         <f>I318*D315/C315</f>
-        <v>30374.168498689956</v>
+        <v>502.87973527251296</v>
       </c>
       <c r="L318">
         <f>D309-D319</f>
-        <v>-11497.311376635291</v>
+        <v>-112.48008345928088</v>
       </c>
     </row>
     <row r="319" spans="2:12">
       <c r="D319" s="1">
         <f>SUM(D314:D318)</f>
-        <v>84532.593329334544</v>
+        <v>1257.5839388942281</v>
       </c>
     </row>
   </sheetData>
@@ -9197,6 +9203,7 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9209,6 +9216,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>